--- a/jhjgyfytfi.xlsx
+++ b/jhjgyfytfi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shruthi\Desktop\GIT HUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A3519A-C0FE-4695-A837-75A44CAC329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30A1FA-9477-496E-811C-3A27EC46C7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>hhfhgkjhihutukdytd</t>
   </si>
   <si>
-    <t>jhkg</t>
+    <t>uh08</t>
   </si>
 </sst>
 </file>

--- a/jhjgyfytfi.xlsx
+++ b/jhjgyfytfi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shruthi\Desktop\GIT HUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30A1FA-9477-496E-811C-3A27EC46C7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1892AFEA-656A-4644-804B-A5A398B6F5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>hhfhgkjhihutukdytd</t>
   </si>
   <si>
-    <t>uh08</t>
+    <t>jhvkguh</t>
   </si>
 </sst>
 </file>
